--- a/RoomNumbers.xlsx
+++ b/RoomNumbers.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t xml:space="preserve">Room</t>
   </si>
@@ -36,7 +36,10 @@
     <t xml:space="preserve">Biometric?</t>
   </si>
   <si>
-    <t xml:space="preserve">A216</t>
+    <t xml:space="preserve">A212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A214</t>
   </si>
   <si>
     <t xml:space="preserve">A218</t>
@@ -60,112 +63,112 @@
     <t xml:space="preserve">B121</t>
   </si>
   <si>
+    <t xml:space="preserve">B219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classroom</t>
+  </si>
+  <si>
     <t xml:space="preserve">B217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classroom</t>
   </si>
 </sst>
 </file>
@@ -207,18 +210,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -262,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,20 +276,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -316,66 +301,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -387,7 +312,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,54 +338,54 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
+      <c r="B2" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
+      <c r="B3" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
+      <c r="B4" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>120</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -468,87 +393,87 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+      <c r="B8" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
+      <c r="B9" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
+      <c r="B10" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
+      <c r="B12" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
+      <c r="B13" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -556,21 +481,21 @@
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -578,98 +503,98 @@
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -677,21 +602,21 @@
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
+      <c r="B26" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -699,76 +624,76 @@
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
+      <c r="B28" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
+      <c r="B29" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
+      <c r="B30" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
+      <c r="B31" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
+      <c r="B32" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
+      <c r="B33" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -776,110 +701,110 @@
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
+      <c r="B35" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
+      <c r="B36" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
+      <c r="B37" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
+      <c r="B38" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
+      <c r="B39" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
+      <c r="B40" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
+      <c r="B41" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
+      <c r="B42" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
+      <c r="B43" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
+      <c r="B44" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -912,122 +837,122 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="7" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10" t="n">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="n">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10" t="n">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="7" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="7" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="7" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="7" t="n">
         <v>30</v>
       </c>
     </row>
